--- a/biology/Botanique/Trichomanes_crispum/Trichomanes_crispum.xlsx
+++ b/biology/Botanique/Trichomanes_crispum/Trichomanes_crispum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trichomane crépu - Trichomanes crispum - est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 un long rhizome traçant et filiforme de couleur brun-sombre à noir ;
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, presque strictement terrestre, est présente en Amérique tropicale et aux Antilles (Guadeloupe et Martinique).
 </t>
@@ -578,12 +594,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Plumier produit une première description d'un exemplaire collecté en Martinique du Trichomane crépu en 1705[1].
-En 1753, Carl von Linné reprend la description de la fougère de Charles Plumier en la dénommant Trichomanes crispum L.[2]
-En 1875, Karl Anton Eugen Prantl la déplace dans le genre Ptilophyllum : Ptilophyllum crispum (L.) Prantl[3].
-Enfin, en 2006, Atsushi Ebihara et al. en font l'espèce type du sous-genre Trichomanes du genre Trichomanes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Plumier produit une première description d'un exemplaire collecté en Martinique du Trichomane crépu en 1705.
+En 1753, Carl von Linné reprend la description de la fougère de Charles Plumier en la dénommant Trichomanes crispum L.
+En 1875, Karl Anton Eugen Prantl la déplace dans le genre Ptilophyllum : Ptilophyllum crispum (L.) Prantl.
+Enfin, en 2006, Atsushi Ebihara et al. en font l'espèce type du sous-genre Trichomanes du genre Trichomanes.
 </t>
         </is>
       </c>
@@ -612,16 +630,53 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Trichomanes crispum est classé dans le sous-genre Trichomanes dont elle est aussi l'espèce-type.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichomanes crispum est classé dans le sous-genre Trichomanes dont elle est aussi l'espèce-type.
 Synonymes : Ptilophyllum crispum (L.) Prantl, Trichomanes cristatum var. crispum (L.) Vareschi, Trichomanes pellucens Liebm. (pour cette dernière espèce, il s'agit d'un homonyme de Trichomanes pellucens Kunze).
 Deux homonymes sont répertoriés :
 Trichomanes crispum Mett. (1856) - Voir Trichomanes vandenboschii P.G.Windisch - cet homonyme de Trichomanes crispum L. a été remplacé illégalement par Trichomanes undulatum Bosch puis par Trichomanes vandenboschii P.G.Windisch
 Trichomanes crispum Taton (1946)
 Cette espèce est l'espèce type du genre Trichomanes.
-Sous-espèces et variétés
-Les variétés reconnues sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trichomanes_crispum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes_crispum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les variétés reconnues sont les suivantes :
 Trichomanes crispum var. fastigiata (Sieber) Hieron. (1904) - (Synonyme : Trichomanes fastigiatum Sieber)
 Trichomanes crispum f. genuina Hieron. (1904) - Colombie
 Trichomanes crispum var. haenkeanum (C.Presl) C.Chr. (1905) - Pérou (Synonyme : Trichomanes haenkeanum C.Presl)
